--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTreeJoinedFinal.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTreeJoinedFinal.xlsx
@@ -19,7 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240951</t>
+  </si>
+  <si>
+    <t>001-042-000240951</t>
+  </si>
+  <si>
+    <t>240951</t>
+  </si>
+  <si>
+    <t>Factura registrada</t>
+  </si>
+  <si>
+    <t>06-00000055</t>
+  </si>
+  <si>
+    <t>600006150</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240945</t>
+  </si>
+  <si>
+    <t>001-042-000240945</t>
+  </si>
+  <si>
+    <t>240945</t>
+  </si>
+  <si>
+    <t>600006151</t>
+  </si>
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240700</t>
   </si>
@@ -30,9 +60,6 @@
     <t>240700</t>
   </si>
   <si>
-    <t>Factura registrada</t>
-  </si>
-  <si>
     <t>06-00000056</t>
   </si>
   <si>
@@ -45,9 +72,6 @@
     <t>240595</t>
   </si>
   <si>
-    <t>NroDocumento</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
@@ -72,36 +96,41 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240395</t>
-  </si>
-  <si>
-    <t>001-042-000240395</t>
-  </si>
-  <si>
-    <t>240395</t>
-  </si>
-  <si>
-    <t>06-00000055</t>
+    <t>Nro. Documento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,8 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,131 +454,191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10086501</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8070</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4400097565</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10086597</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8080</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4400097565</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10086423</v>
+      </c>
+      <c r="H4" s="1">
+        <v>23660</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4400097566</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K4" s="1">
+        <v>600006147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>10086412</v>
-      </c>
-      <c r="F2">
-        <v>8000</v>
-      </c>
-      <c r="G2">
-        <v>4400097565</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>600006146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>10086423</v>
-      </c>
-      <c r="F3">
-        <v>23660</v>
-      </c>
-      <c r="G3">
+      <c r="G5" s="1">
+        <v>10086425</v>
+      </c>
+      <c r="H5" s="1">
+        <v>23670</v>
+      </c>
+      <c r="I5" s="1">
         <v>4400097566</v>
       </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>600006147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>10086425</v>
-      </c>
-      <c r="F4">
-        <v>23670</v>
-      </c>
-      <c r="G4">
-        <v>4400097566</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1">
         <v>600006148</v>
       </c>
     </row>
